--- a/downloads/output.xlsx
+++ b/downloads/output.xlsx
@@ -215,7 +215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
+        <fgColor rgb=" #FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -231,8 +231,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,7 +581,7 @@
   <dimension ref="A1:M23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
@@ -591,49 +594,49 @@
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
@@ -674,7 +677,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
@@ -715,7 +718,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
@@ -756,7 +759,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -797,7 +800,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
@@ -838,7 +841,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
@@ -879,7 +882,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
@@ -920,7 +923,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
@@ -961,7 +964,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
@@ -1002,7 +1005,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
@@ -1043,7 +1046,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B12" t="s">
@@ -1084,7 +1087,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B13" t="s">
@@ -1125,7 +1128,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B14" t="s">
@@ -1166,7 +1169,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B15" t="s">
@@ -1207,7 +1210,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B16" t="s">
@@ -1248,7 +1251,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
@@ -1289,7 +1292,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
@@ -1330,7 +1333,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B19" t="s">
@@ -1371,7 +1374,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
@@ -1412,7 +1415,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B21" t="s">
@@ -1453,7 +1456,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B22" t="s">
@@ -1494,7 +1497,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
